--- a/test_data/Example2_JTK.xlsx
+++ b/test_data/Example2_JTK.xlsx
@@ -1,53 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Ag.X.1.0_CDS_at" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Ag.X.2.0_CDS_a_at" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Ag.X.2.0_UTR_a_at" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Ag.X.3.0_CDS_at" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Ag.X.4.0_CDS_at" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Ag.X.5.0_CDS_a_at" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Ag.X.6.1_UTR_a_at" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Ag.X.7.0_CDS_at" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Ag.X.8.0_CDS_a_at" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Ag.X.8.1_a_at" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Ag.X.9.0_CDS_a_at" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Ag.X.10.0_CDS_at" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Ag.X.11.0_CDS_at" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Ag.X.11.0_UTR_at" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Ag.X.12.0_CDS_a_at" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Ag.X.13.0_CDS_at" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Ag.X.14.1_CDS_a_at" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Ag.X.15.0_CDS_at" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Ag.X.15.0_UTR_at" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Ag.X.16.0_CDS_a_at" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Ag.X.1.0_CDS_at" sheetId="1" r:id="rId1"/>
+    <sheet name="Ag.X.2.0_CDS_a_at" sheetId="2" r:id="rId2"/>
+    <sheet name="Ag.X.2.0_UTR_a_at" sheetId="3" r:id="rId3"/>
+    <sheet name="Ag.X.3.0_CDS_at" sheetId="4" r:id="rId4"/>
+    <sheet name="Ag.X.4.0_CDS_at" sheetId="5" r:id="rId5"/>
+    <sheet name="Ag.X.5.0_CDS_a_at" sheetId="6" r:id="rId6"/>
+    <sheet name="Ag.X.6.1_UTR_a_at" sheetId="7" r:id="rId7"/>
+    <sheet name="Ag.X.7.0_CDS_at" sheetId="8" r:id="rId8"/>
+    <sheet name="Ag.X.8.0_CDS_a_at" sheetId="9" r:id="rId9"/>
+    <sheet name="Ag.X.8.1_a_at" sheetId="10" r:id="rId10"/>
+    <sheet name="Ag.X.9.0_CDS_a_at" sheetId="11" r:id="rId11"/>
+    <sheet name="Ag.X.10.0_CDS_at" sheetId="12" r:id="rId12"/>
+    <sheet name="Ag.X.11.0_CDS_at" sheetId="13" r:id="rId13"/>
+    <sheet name="Ag.X.11.0_UTR_at" sheetId="14" r:id="rId14"/>
+    <sheet name="Ag.X.12.0_CDS_a_at" sheetId="15" r:id="rId15"/>
+    <sheet name="Ag.X.13.0_CDS_at" sheetId="16" r:id="rId16"/>
+    <sheet name="Ag.X.14.1_CDS_a_at" sheetId="17" r:id="rId17"/>
+    <sheet name="Ag.X.15.0_CDS_at" sheetId="18" r:id="rId18"/>
+    <sheet name="Ag.X.15.0_UTR_at" sheetId="19" r:id="rId19"/>
+    <sheet name="Ag.X.16.0_CDS_a_at" sheetId="20" r:id="rId20"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -63,15 +61,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -359,4541 +358,4421 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>8.673</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3.138</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2.951</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2.839</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>3.141</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3.054</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3.144</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.19</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2.836</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>3.111</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3.153</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3.136</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>3.423</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>8.574</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3.093</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2.816</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3.083</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>3.014</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2.917</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>3.122</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2.93</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2.914</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2.908</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2.946</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2.856</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>3.098</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>13.515</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>12.857</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>14.047</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>12.344</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>12.7</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>13.811</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>13.774</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>13.163</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>13.938</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>13.279</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>13.464</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>13.181</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>13.142</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>13.487</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>12.906</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>13.959</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>12.518</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>12.69</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>13.811</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>13.808</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>13.116</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>14.014</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>13.259</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>13.502</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>13.225</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>13.247</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>7.504</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>7.286</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7.437</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>7.524</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7.621</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>7.573</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>7.529</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7.47</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>7.474</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>7.571000000000001</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>7.537000000000001</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>7.515</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>7.485</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>7.617000000000001</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>7.675</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>7.557</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>7.73</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>7.781000000000001</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>7.876</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>7.532999999999999</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>7.591</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>7.591</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>7.655</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>7.724</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>7.529</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>7.46</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>5.657999999999999</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2.062</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2.066</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2.06</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.064</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.065</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2.094</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2.059</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2.07</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2.061</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.09</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2.079</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2.088</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>5.546</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2.006</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2.012</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2.186</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2.017</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2.006</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2.044</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2.014</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2.03</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2.005</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2.022</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2.015</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2.043</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>6.933</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>7.039</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7.209</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>6.914</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>6.699</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>7.104</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>7.316</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>6.915</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>7.242000000000001</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>6.863</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>7.002999999999999</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>7.206</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>6.939</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>7.008999999999999</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>7.122000000000001</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>7.011</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>6.602</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>6.871</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>6.922999999999999</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>6.912000000000001</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>7.013</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>7.252000000000001</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>6.821000000000001</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>6.834</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>6.866000000000001</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>6.978</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>3.523</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3.653</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3.99</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3.699</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>3.142</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3.776</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3.643</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.832</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>4.027</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>3.422</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3.383</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3.423</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>3.874</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>4.013999999999999</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>4.318000000000001</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>4.178999999999999</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3.778</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>4.003</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>3.773</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>3.547</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>3.986</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>3.98</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>3.775</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>3.516</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>4.444</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>3.741</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>2.441</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2.43</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2.431</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2.43</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.433</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.423</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2.438</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2.431</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2.434</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2.43</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.445</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2.444</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2.442</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>2.396</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>2.602</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2.411</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2.393</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2.402</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>2.359</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2.417</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>2.396</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2.392</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>2.404</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2.408</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>2.374</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2.416</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>7.657999999999999</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3.067</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3.082</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>4.678999999999999</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>3.08</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3.077</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>6.593</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.072</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>3.099</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>3.086</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3.085</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3.132</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>3.08</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>7.446000000000001</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3.045</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2.97</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3.454</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2.981</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>3.033</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>4.717</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>3.041</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>3.183</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>3.037</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>3.051</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>3.046</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>3.067</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>8.949</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>8.824</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8.769</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>9.01</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>8.808</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>8.577999999999999</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8.971</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>9.050000000000001</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8.824999999999999</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>8.986000000000001</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>8.972999999999999</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>9.013999999999999</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>8.855</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>8.826000000000001</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>9.173999999999999</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>8.972000000000001</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>9.154</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>9.029</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>8.901</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>9.058999999999999</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>9.163</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>8.853</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>9.267000000000001</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>9.022</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>9.037000000000001</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>9.16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>3.272</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>3.274</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>3.277</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>3.275</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>3.277</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>3.732</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>3.441</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2.862</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>3.265</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>3.45</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>3.275</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>3.111</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>3.743</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>3.478</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>3.823</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>3.958</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>3.236</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>3.075</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>3.343</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>3.908</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>3.237</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>3.224</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>3.225</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>3.235</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>3.481</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>8.69</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>8.507999999999999</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8.636000000000001</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>8.632</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>8.586</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>8.407999999999999</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8.436</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>8.586</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8.387</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>8.407999999999999</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>8.693999999999999</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>8.318999999999999</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>8.286</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>8.76</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>8.339</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>8.627000000000001</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>8.527000000000001</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>8.342000000000001</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>8.423</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>8.541</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>8.435</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>8.372999999999999</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>8.503</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>8.773999999999999</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>8.647</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>8.396000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>9.794</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>10.096</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>10.436</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10.917</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>10.711</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>10.488</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>10.301</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>10.114</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>10.456</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>10.912</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>11.069</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>10.337</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>10.017</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>10.003</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>9.937999999999999</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>10.053</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>10.431</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>10.649</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>10.174</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>10.121</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>9.978999999999999</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>10.04</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>10.166</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>10.597</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>10.351</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>9.841000000000001</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>7.551</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>7.192</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>7.093999999999999</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>6.765</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>6.851</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>7.061</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>7.374</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>7.077000000000001</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>6.972</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>6.856</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>6.526</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>7.144</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>7.261</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>7.675</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>7.376</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>6.982</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>6.785</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>6.798999999999999</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>7.245</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>7.423999999999999</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>7.317</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>7.042999999999999</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>6.782999999999999</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>6.803</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>7.323</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>7.7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>12.138</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>12.133</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>12.416</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>12.71</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>12.86</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>12.585</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>12.382</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>12.405</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>12.506</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>12.559</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>12.807</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>12.63</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>12.314</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>12.398</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>12.208</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>12.468</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>12.908</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>12.79</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>12.541</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>12.483</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>12.48</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>12.46</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>12.749</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>12.886</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>12.631</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>12.28</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>11.214</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>8.201000000000001</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8.948</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>8.263999999999999</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7.218</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>8.522</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>8.732000000000001</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>8.582000000000001</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>8.859999999999999</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>9.548999999999999</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>8.047000000000001</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>7.871</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>8.232999999999999</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>11.099</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>8.446</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>9.107999999999999</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>8.308</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>7.616000000000001</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>8.571</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>8.652000000000001</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>8.757</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>8.972999999999999</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>9.470000000000001</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>8.006</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>7.849</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>8.856</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>11.965</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>12.126</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>11.771</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>11.598</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>11.385</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>11.509</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>11.907</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>11.764</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>11.627</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>11.596</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>11.416</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11.751</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>11.787</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>11.958</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>12.155</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>11.768</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>11.642</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>11.597</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>11.704</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>11.912</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>11.924</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>11.707</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>11.627</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>11.527</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>11.753</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>11.826</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>7.89</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>8.147</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8.021000000000001</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>7.354</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7.88</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>7.257999999999999</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>7.896</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>8.079000000000001</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>7.735</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>7.787000000000001</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>7.467000000000001</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>7.03</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>7.896</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>8.130000000000001</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>8.459</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>8.210000000000001</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>7.55</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>8.029999999999999</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>7.74</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>8.085000000000001</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>8.411</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>7.961</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>8.006</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>7.608</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>7.468</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>8.103999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>4.671</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>2.048</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>2.052</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>2.049</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2.045</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>2.05</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>2.067</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>2.047</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2.06</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>2.051</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2.062</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2.08</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>2.062</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>5.34</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>1.975</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>2.003</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>2.126</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>2.022</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>1.954</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>2.029</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>1.985</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>2.024</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>1.994</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>2.011</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>1.981</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>2.035</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>10.301</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>10.27</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>9.843</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>8.727</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>7.143</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>9.277999999999999</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>10.503</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>9.986000000000001</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>9.906000000000001</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>8.835000000000001</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>6.75</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>9.35</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>10.763</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>10.541</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>10.323</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>9.888999999999999</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>8.948</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>7.361000000000001</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>9.331</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>10.733</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>10.016</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>10.008</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>9.037000000000001</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>7.156000000000001</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>9.437999999999999</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>10.852</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
+    <row r="1" spans="1:2">
+      <c r="A1">
         <v>0</v>
       </c>
-      <c r="B1" t="n">
+      <c r="B1">
         <v>12.165</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:2">
+      <c r="A2">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>11.398</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:2">
+      <c r="A3">
         <v>8</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>12.701</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:2">
+      <c r="A4">
         <v>12</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>10.734</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:2">
+      <c r="A5">
         <v>16</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>11.165</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:2">
+      <c r="A6">
         <v>20</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>12.45</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:2">
+      <c r="A7">
         <v>24</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>12.434</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:2">
+      <c r="A8">
         <v>28</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>11.767</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:2">
+      <c r="A9">
         <v>32</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>12.659</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:2">
+      <c r="A10">
         <v>36</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>11.957</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:2">
+      <c r="A11">
         <v>40</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>12.171</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:2">
+      <c r="A12">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>11.868</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:2">
+      <c r="A13">
         <v>48</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>11.693</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:2">
+      <c r="A14">
         <v>0</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>12.149</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:2">
+      <c r="A15">
         <v>4</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>11.445</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:2">
+      <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>12.728</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="n">
+    <row r="17" spans="1:2">
+      <c r="A17">
         <v>12</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>10.916</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" spans="1:2">
+      <c r="A18">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>11.268</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" spans="1:2">
+      <c r="A19">
         <v>20</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>12.48</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:2">
+      <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>12.564</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" spans="1:2">
+      <c r="A21">
         <v>28</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>11.763</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" spans="1:2">
+      <c r="A22">
         <v>32</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>12.603</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:2">
+      <c r="A23">
         <v>36</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>11.96</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:2">
+      <c r="A24">
         <v>40</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>12.154</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:2">
+      <c r="A25">
         <v>44</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>11.855</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:2">
+      <c r="A26">
         <v>48</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>11.841</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>